--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -36,30 +36,52 @@
     <t xml:space="preserve">Things to remember:</t>
   </si>
   <si>
+    <t xml:space="preserve">ctrl+m :remove hyperlink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Write a program to reverse an array or string</t>
   </si>
   <si>
-    <t xml:space="preserve">reverse keyword and syntax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">push_back→  syntax</t>
+    <t xml:space="preserve">reverse keyword and syntax, push_back→  syntax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort[first, last) || where r is the last index value  | sort(arr, arr + r)//won't work    || use      sort(arr, arr + r+1);   || sort(arr, arr + n) will work if n is size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arr indicates iterator pointing to first element of array and +n would increment that iterator by n elements. </t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">reverse(str.begin(),str.end())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()   → open interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extremes not included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]   → closed interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extremes included</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,18 +105,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,8 +176,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,7 +189,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,19 +197,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -177,48 +295,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="8.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>44579</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -236,25 +376,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:C4"/>
+  <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -279,7 +435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="keywords" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="mistakes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -54,6 +54,12 @@
     <t xml:space="preserve">arr indicates iterator pointing to first element of array and +n would increment that iterator by n elements. </t>
   </si>
   <si>
+    <t xml:space="preserve">sort an array of 0s, 1s and 2s https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector→ insert  </t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -70,6 +76,23 @@
   </si>
   <si>
     <t xml:space="preserve">extremes included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void c_array(int a[])
+{
+int b[] = {10, 20, 30, 40};
+a = &amp;b[0];
+//      /// will work for calling a inside function
+// //outside this function this does not make sense as b[] is local
+// a = &amp;b[0]; address is copied
+// but while calling from outside address of b is garbage
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t point an array from main to inside/ local array. Local array will be destroyed after function call.</t>
   </si>
 </sst>
 </file>
@@ -133,6 +156,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,11 +221,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,8 +233,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,15 +325,15 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="8.46"/>
   </cols>
@@ -339,19 +367,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>44580</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,6 +400,9 @@
       <c r="C10" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" location="" display="https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1#"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -382,7 +424,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
@@ -391,26 +433,26 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -429,14 +471,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t xml:space="preserve">vector→ insert  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">editorial gives 2 pointer and quick sort approach. I did by making additional 3 array and merging  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable length array in stl caused error  ||use const int || error code:no matching function for call to ‘begin(int [n])’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int array [ variable] is not standard way of initializing variable. || use cont int variable = 3or 1 ; then initialize;. However const int var = another_var; int array  [var] will create error.</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -93,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">don’t point an array from main to inside/ local array. Local array will be destroyed after function call.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merging is not concatenation.. merging is like union or sorted array. Order cannot be guaranteed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for concatenation use insert</t>
   </si>
 </sst>
 </file>
@@ -204,7 +225,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,6 +234,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,11 +246,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,12 +258,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,16 +350,16 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="59.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="8.46"/>
   </cols>
   <sheetData>
@@ -345,10 +370,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -356,52 +381,72 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44579</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>44580</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" location="" display="https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1#"/>
+    <hyperlink ref="C7" r:id="rId1" display="sort an array of 0s, 1s and 2s https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1# "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -421,10 +466,10 @@
   <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
@@ -433,26 +478,26 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -471,30 +516,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="C:C A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="55.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="45.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">ctrl+m :remove hyperlink</t>
+  </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -36,7 +39,10 @@
     <t xml:space="preserve">Things to remember:</t>
   </si>
   <si>
-    <t xml:space="preserve">ctrl+m :remove hyperlink</t>
+    <t xml:space="preserve">Editorial :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 18</t>
   </si>
   <si>
     <t xml:space="preserve">Write a program to reverse an array or string</t>
@@ -45,6 +51,9 @@
     <t xml:space="preserve">reverse keyword and syntax, push_back→  syntax </t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
@@ -54,12 +63,18 @@
     <t xml:space="preserve">arr indicates iterator pointing to first element of array and +n would increment that iterator by n elements. </t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">sort an array of 0s, 1s and 2s https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1# </t>
   </si>
   <si>
     <t xml:space="preserve">vector→ insert  </t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
@@ -73,6 +88,15 @@
   </si>
   <si>
     <t xml:space="preserve">int array [ variable] is not standard way of initializing variable. || use cont int variable = 3or 1 ; then initialize;. However const int var = another_var; int array  [var] will create error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deque..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using array only… without creating new array.. using a[] technique and using logic</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -120,12 +144,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -149,15 +172,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,8 +188,8 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -221,7 +236,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -230,44 +245,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,106 +363,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="59.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="37.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="29.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="3" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>44579</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>44580</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="6" t="s">
+    <row r="5" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>44581</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
-        <v>44582</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="6" t="s">
+    <row r="6" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
+    <row r="9" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="sort an array of 0s, 1s and 2s https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1# "/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -466,10 +503,10 @@
   <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
@@ -478,26 +515,26 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -518,36 +555,36 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="C:C A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="55.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -99,6 +99,33 @@
     <t xml:space="preserve">using array only… without creating new array.. using a[] technique and using logic</t>
   </si>
   <si>
+    <t xml:space="preserve">22 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane algo.. o(n).. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw method.. need to make it concise</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -115,6 +142,24 @@
   </si>
   <si>
     <t xml:space="preserve">extremes included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accumulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for (auto i : v) {  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin(array) , end(array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterator for normal array.. or can use (array, array +size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector(begin(ar), end(ar))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array to vector</t>
   </si>
   <si>
     <t xml:space="preserve">Mistakes</t>
@@ -195,12 +240,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,12 +291,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,10 +312,6 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,16 +320,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -311,7 +370,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -363,15 +422,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.07"/>
@@ -413,10 +472,10 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -465,7 +524,7 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
@@ -482,6 +541,42 @@
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -500,13 +595,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:F5"/>
+  <dimension ref="C2:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
@@ -515,29 +610,61 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -559,32 +686,32 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>33</v>
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -126,6 +126,40 @@
     <t xml:space="preserve">raw method.. need to make it concise</t>
   </si>
   <si>
+    <t xml:space="preserve">25 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum height between tower II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solution not working for multiple case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stl reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palindrome check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop till hafl length and check the ==
+Editorial: reverse and direct check ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfg editorial solution best</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -147,6 +181,9 @@
     <t xml:space="preserve">accumulate</t>
   </si>
   <si>
+    <t xml:space="preserve">summation</t>
+  </si>
+  <si>
     <t xml:space="preserve">for (auto i : v) {  }</t>
   </si>
   <si>
@@ -160,6 +197,18 @@
   </si>
   <si>
     <t xml:space="preserve">array to vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vec.erase(std::remove(vec.begin(), vec.end(), val_2_remove), vec.end()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove all multiple value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::vector&lt;int&gt; myNumbers; std::erase(myNumbers, number_in); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">untested.. got from stack</t>
   </si>
   <si>
     <t xml:space="preserve">Mistakes</t>
@@ -183,6 +232,27 @@
   </si>
   <si>
     <t xml:space="preserve">for concatenation use insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for(i, i(in terms of array(arr), i++)..
+remove(arr.(), arr.().value)
+ don’t remove terms from same arr.
+ It may lead to unstability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using remove inside loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using if (a&lt;b&lt;c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong won’t work.. may not give compilation error.. but wrong anwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using  if(a&lt;b and b&lt;c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using if(a = b) instead of (a == b)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +310,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +321,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,7 +367,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,20 +404,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -403,7 +483,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -422,18 +502,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="37.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="43.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="29.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="3" width="8.46"/>
   </cols>
@@ -577,6 +657,45 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -595,75 +714,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:G11"/>
+  <dimension ref="C2:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="9" t="s">
-        <v>41</v>
+      <c r="C9" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D10:G10"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -680,43 +823,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
+      <c r="B1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -187,13 +187,14 @@
     <t xml:space="preserve">for (auto i : v) {  }</t>
   </si>
   <si>
-    <t xml:space="preserve">begin(array) , end(array)</t>
+    <t xml:space="preserve">begin(array) , end(array)// may not work</t>
   </si>
   <si>
     <t xml:space="preserve">iterator for normal array.. or can use (array, array +size)</t>
   </si>
   <si>
-    <t xml:space="preserve">vector(begin(ar), end(ar))</t>
+    <t xml:space="preserve">vector(begin(ar), end(ar))// may not work
+Use vector &lt;int&gt; a (array, array +n);</t>
   </si>
   <si>
     <t xml:space="preserve">array to vector</t>
@@ -209,6 +210,18 @@
   </si>
   <si>
     <t xml:space="preserve">untested.. got from stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character to int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(character)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int to character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char(int)</t>
   </si>
   <si>
     <t xml:space="preserve">Mistakes</t>
@@ -253,6 +266,12 @@
   </si>
   <si>
     <t xml:space="preserve">using if(a = b) instead of (a == b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for(int j, j&lt;size , j++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using comma instead of semi – colon</t>
   </si>
 </sst>
 </file>
@@ -504,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,13 +733,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:G16"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.46"/>
@@ -776,8 +795,8 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -802,6 +821,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -823,13 +858,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="55.82"/>
@@ -838,50 +873,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -160,22 +160,34 @@
     <t xml:space="preserve">gfg editorial solution best</t>
   </si>
   <si>
+    <t xml:space="preserve">30 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used naive / brute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn map method</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">reverse(str.begin(),str.end())</t>
   </si>
   <si>
+    <t xml:space="preserve">extremes not included</t>
+  </si>
+  <si>
     <t xml:space="preserve">()   → open interval</t>
   </si>
   <si>
-    <t xml:space="preserve">extremes not included</t>
+    <t xml:space="preserve">extremes included</t>
   </si>
   <si>
     <t xml:space="preserve">[]   → closed interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extremes included</t>
   </si>
   <si>
     <t xml:space="preserve">accumulate</t>
@@ -222,6 +234,12 @@
   </si>
   <si>
     <t xml:space="preserve">char(int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill array with predivfined value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int arr[10] = {0};    std::fill_n(arr, 10, -1); </t>
   </si>
   <si>
     <t xml:space="preserve">Mistakes</t>
@@ -386,7 +404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,19 +445,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -521,10 +559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,6 +753,20 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -733,109 +785,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:G19"/>
+  <dimension ref="C2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.58"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="F4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="D10" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D15" s="11" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -860,71 +923,71 @@
   </sheetPr>
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="B1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>68</v>
+      <c r="B2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>70</v>
+      <c r="B4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>72</v>
+      <c r="B8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>74</v>
+      <c r="B11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
-        <v>75</v>
+      <c r="B12" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13" t="s">
-        <v>76</v>
+      <c r="B14" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>78</v>
+      <c r="B16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">palindrome check</t>
   </si>
   <si>
-    <t xml:space="preserve">loop till hafl length and check the ==
+    <t xml:space="preserve">loop till half length and check the ==
 Editorial: reverse and direct check ==</t>
   </si>
   <si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">learn map method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concatenate + check substring</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -404,7 +410,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,10 +449,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -559,10 +561,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,7 +743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -759,7 +761,7 @@
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -767,6 +769,14 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -791,114 +801,114 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="10" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="8.59"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11" t="s">
-        <v>49</v>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>51</v>
+      <c r="C4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>53</v>
+      <c r="D5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="11" t="s">
-        <v>54</v>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>56</v>
+      <c r="C8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="s">
-        <v>57</v>
+      <c r="C9" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>63</v>
+      <c r="C13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>65</v>
+      <c r="C15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>67</v>
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>69</v>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>71</v>
+      <c r="C21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -927,67 +937,67 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
+      <c r="B2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>76</v>
+      <c r="B4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>78</v>
+      <c r="B8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>80</v>
+      <c r="B11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>81</v>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>82</v>
+      <c r="B14" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>84</v>
+      <c r="B16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -172,10 +172,22 @@
     <t xml:space="preserve">learn map method</t>
   </si>
   <si>
+    <t xml:space="preserve">1 feb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
     <t xml:space="preserve">Concatenate + check substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -306,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -352,6 +364,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -410,7 +429,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,6 +468,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -545,7 +568,7 @@
       <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -561,10 +584,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,11 +795,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -801,114 +838,114 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="10" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="10" t="s">
-        <v>51</v>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>53</v>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>55</v>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="10" t="s">
-        <v>56</v>
+      <c r="D6" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11" t="s">
-        <v>59</v>
+      <c r="C9" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>63</v>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>65</v>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>67</v>
+      <c r="C15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>69</v>
+      <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>71</v>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>73</v>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -937,67 +974,67 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>76</v>
+      <c r="B2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>78</v>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>80</v>
+      <c r="B8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>82</v>
+      <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>83</v>
+      <c r="B12" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>84</v>
+      <c r="B14" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>86</v>
+      <c r="B16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -318,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -371,6 +377,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -429,7 +442,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +483,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,9 +601,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C19" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -814,6 +831,14 @@
       </c>
       <c r="D21" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -838,114 +863,114 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="12" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="12" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="12" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11" t="s">
-        <v>55</v>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>57</v>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>59</v>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="11" t="s">
-        <v>60</v>
+      <c r="D6" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>62</v>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="s">
-        <v>63</v>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>67</v>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>69</v>
+      <c r="C13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>71</v>
+      <c r="C15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>73</v>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
+      <c r="C19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>77</v>
+      <c r="C21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -974,67 +999,67 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>80</v>
+      <c r="B2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>82</v>
+      <c r="B4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>84</v>
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>86</v>
+      <c r="B11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>87</v>
+      <c r="B12" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>88</v>
+      <c r="B14" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>90</v>
+      <c r="B16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -371,15 +377,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <u val="single"/>
+      <sz val="9"/>
+      <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -442,7 +449,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +491,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,10 +612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C19" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -811,7 +822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -839,6 +850,14 @@
       </c>
       <c r="C22" s="11" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -859,118 +878,118 @@
   </sheetPr>
   <dimension ref="C2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="12" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="12" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="12" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="13" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="13" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12" t="s">
-        <v>57</v>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>59</v>
+      <c r="C4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>61</v>
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="12" t="s">
-        <v>62</v>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>64</v>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="s">
-        <v>65</v>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>69</v>
+      <c r="C11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>71</v>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>73</v>
+      <c r="C15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>75</v>
+      <c r="C18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>77</v>
+      <c r="C19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>79</v>
+      <c r="C21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -995,71 +1014,71 @@
   </sheetPr>
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>82</v>
+      <c r="B2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>84</v>
+      <c r="B4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
+      <c r="B8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>88</v>
+      <c r="B11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="s">
-        <v>89</v>
+      <c r="B12" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
-        <v>90</v>
+      <c r="B14" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
+      <c r="B16" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -321,6 +327,18 @@
   <si>
     <t xml:space="preserve">using comma instead of semi – colon</t>
   </si>
+  <si>
+    <t xml:space="preserve">int m  =0;
+For (  .....)
+{
+  Int m = 2 
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inside bracked int m is local.. it is initailized again as a local value.
+Correct use is m = 2;
+If not used properly garbage value may be generated</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +348,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,7 +372,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -370,14 +388,14 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -385,8 +403,15 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF111111"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -449,7 +474,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,27 +523,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,10 +641,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -633,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -681,7 +710,7 @@
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -692,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -703,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -712,14 +741,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -733,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -794,7 +823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -822,7 +851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -858,6 +887,14 @@
       </c>
       <c r="C23" s="12" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -884,112 +921,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="13" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="13" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="14" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="14" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13" t="s">
-        <v>59</v>
+      <c r="C2" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>61</v>
+      <c r="C4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>63</v>
+      <c r="D5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="13" t="s">
-        <v>64</v>
+      <c r="D6" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>66</v>
+      <c r="C8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="14" t="s">
-        <v>67</v>
+      <c r="C9" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>71</v>
+      <c r="C11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>73</v>
+      <c r="C13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>75</v>
+      <c r="C15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>77</v>
+      <c r="C18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>79</v>
+      <c r="C19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>81</v>
+      <c r="C21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1012,73 +1049,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C16"/>
+  <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>84</v>
+      <c r="B2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>86</v>
+      <c r="B4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>88</v>
+      <c r="B8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>90</v>
+      <c r="B11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="18" t="s">
-        <v>91</v>
+      <c r="B12" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18" t="s">
-        <v>92</v>
+      <c r="B14" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>94</v>
+      <c r="B16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort matrix</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -338,6 +344,13 @@
     <t xml:space="preserve">inside bracked int m is local.. it is initailized again as a local value.
 Correct use is m = 2;
 If not used properly garbage value may be generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentation fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check return values are provided
+Check out of bound values are called?</t>
   </si>
 </sst>
 </file>
@@ -527,7 +540,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,10 +654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -895,6 +908,14 @@
       </c>
       <c r="C24" s="13" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -930,49 +951,49 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -980,26 +1001,26 @@
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,26 +1028,26 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1070,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C19"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="55.82"/>
@@ -1064,66 +1085,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">sort matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -352,6 +358,32 @@
     <t xml:space="preserve">check return values are provided
 Check out of bound values are called?</t>
   </si>
+  <si>
+    <t xml:space="preserve">class Solution{
+  public:
+    Int middle(int A, int B, int C){
+        return (A+B+C)-max({A,B,C})-min({A,B,C});
+    }
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare three digits to find median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int middle(int A, int B, int C){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return (A+B+C)-max({A,B,C})-min({A,B,C});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}; </t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +393,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,6 +455,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="9"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -487,7 +527,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,23 +584,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,6 +618,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -654,10 +702,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,6 +964,22 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -942,112 +1006,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="14" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="14" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="15" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="15" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="15" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="14" t="s">
-        <v>63</v>
+      <c r="C2" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>65</v>
+      <c r="C4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>67</v>
+      <c r="D5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="14" t="s">
-        <v>68</v>
+      <c r="D6" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>70</v>
+      <c r="C8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="15" t="s">
-        <v>71</v>
+      <c r="C9" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>75</v>
+      <c r="C11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
+      <c r="C13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>79</v>
+      <c r="C15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="17"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>81</v>
+      <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>83</v>
+      <c r="C19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>85</v>
+      <c r="C21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1070,94 +1134,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>88</v>
+      <c r="B2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>90</v>
+      <c r="B4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>92</v>
+      <c r="B8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>94</v>
+      <c r="B11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="19" t="s">
-        <v>95</v>
+      <c r="B12" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="s">
-        <v>96</v>
+      <c r="B14" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>98</v>
+      <c r="B16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>100</v>
+      <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>102</v>
+      <c r="B22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C24:C29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle of Three </t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -393,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,7 +426,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -432,39 +441,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="9"/>
       <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -527,7 +505,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,14 +530,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,7 +538,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,35 +546,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,10 +664,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -771,7 +733,7 @@
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -782,7 +744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -793,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -802,14 +764,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="true" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="29.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="3" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -823,11 +784,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -844,7 +805,7 @@
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -869,7 +830,7 @@
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -884,7 +845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -902,7 +863,7 @@
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -912,7 +873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -927,7 +888,7 @@
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -938,7 +899,7 @@
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -946,7 +907,7 @@
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -954,7 +915,7 @@
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -970,7 +931,7 @@
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -978,8 +939,21 @@
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="8" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1006,112 +980,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="15" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="15" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="15" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="15" t="s">
-        <v>65</v>
+      <c r="C2" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>67</v>
+      <c r="C4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>69</v>
+      <c r="D5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="15" t="s">
-        <v>70</v>
+      <c r="D6" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>72</v>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="16" t="s">
-        <v>73</v>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
+      <c r="C11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>79</v>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>81</v>
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="18"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>83</v>
+      <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>85</v>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>87</v>
+      <c r="C21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1136,120 +1110,120 @@
   </sheetPr>
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="21"/>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>90</v>
+      <c r="B2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>92</v>
+      <c r="B4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>94</v>
+      <c r="B8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>96</v>
+      <c r="B11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="s">
-        <v>97</v>
+      <c r="B12" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="s">
-        <v>98</v>
+      <c r="B14" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>100</v>
+      <c r="B16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>102</v>
+      <c r="B19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>104</v>
+      <c r="B22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="23" t="s">
-        <v>105</v>
+      <c r="C24" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>107</v>
+      <c r="B25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23" t="s">
-        <v>108</v>
+      <c r="C26" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23" t="s">
-        <v>109</v>
+      <c r="C27" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="23" t="s">
-        <v>110</v>
+      <c r="C28" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="23" t="s">
-        <v>111</v>
+      <c r="C29" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -427,7 +433,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -442,7 +448,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF111111"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -505,7 +511,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,10 +544,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,23 +552,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,10 +586,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -664,10 +666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,7 +901,7 @@
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -915,7 +917,7 @@
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -947,13 +949,21 @@
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -989,49 +999,49 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1039,26 +1049,26 @@
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,26 +1076,26 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1124,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
@@ -1123,107 +1133,107 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="19" t="s">
-        <v>108</v>
+      <c r="C24" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="19" t="s">
-        <v>111</v>
+      <c r="C26" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19" t="s">
-        <v>112</v>
+      <c r="C27" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="19" t="s">
-        <v>113</v>
+      <c r="C28" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="19" t="s">
-        <v>114</v>
+      <c r="C29" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -235,6 +235,12 @@
     <t xml:space="preserve">Find the repeating and the missing</t>
   </si>
   <si>
+    <t xml:space="preserve">21 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majority element</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve"> int arr[10] = {0};    std::fill_n(arr, 10, -1); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use unordered map if ordering is not imp. Efficient ++ </t>
   </si>
   <si>
     <t xml:space="preserve">Mistakes</t>
@@ -511,7 +520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,10 +558,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,8 +967,19 @@
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -982,120 +998,125 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:G21"/>
+  <dimension ref="C2:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="10" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11" t="s">
-        <v>70</v>
+      <c r="C2" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>72</v>
+      <c r="C4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>74</v>
+      <c r="D5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="11" t="s">
-        <v>75</v>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
+      <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="s">
-        <v>78</v>
+      <c r="C9" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>82</v>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>84</v>
+      <c r="C13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>86</v>
+      <c r="C15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>88</v>
+      <c r="C18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>90</v>
+      <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>92</v>
+      <c r="C21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1124,116 +1145,116 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>95</v>
+      <c r="B2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>97</v>
+      <c r="B4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>99</v>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>101</v>
+      <c r="B11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>102</v>
+      <c r="B12" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>103</v>
+      <c r="B14" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>105</v>
+      <c r="B16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>107</v>
+      <c r="B19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>109</v>
+      <c r="B22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="17" t="s">
-        <v>110</v>
+      <c r="C24" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>112</v>
+      <c r="B25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="17" t="s">
-        <v>113</v>
+      <c r="C26" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="17" t="s">
-        <v>114</v>
+      <c r="C27" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="17" t="s">
-        <v>115</v>
+      <c r="C28" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="17" t="s">
-        <v>116</v>
+      <c r="C29" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures and Algo/DS_Algo track.xlsx
+++ b/Data Structures and Algo/DS_Algo track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="450_curated babbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t xml:space="preserve">ctrl+m :remove hyperlink</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t xml:space="preserve">majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimization possible</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -408,6 +417,20 @@
   <si>
     <t xml:space="preserve">}; </t>
   </si>
+  <si>
+    <t xml:space="preserve">bool (function)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return true and false
+Not 1 or -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for(i;i&lt;n; i+2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to increament i by 2 it is not i+2 but
+..i +=2</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -451,6 +474,12 @@
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -520,7 +549,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,23 +590,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,10 +704,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,6 +1013,17 @@
       </c>
       <c r="D31" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1000,123 +1044,123 @@
   </sheetPr>
   <dimension ref="C2:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="10" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="51.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="11" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="10" t="s">
-        <v>72</v>
+      <c r="C2" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>74</v>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>76</v>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="10" t="s">
-        <v>77</v>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>79</v>
+      <c r="C8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11" t="s">
-        <v>80</v>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>84</v>
+      <c r="C11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>86</v>
+      <c r="C13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>88</v>
+      <c r="C15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>90</v>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>92</v>
+      <c r="C19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>94</v>
+      <c r="C21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="10" t="s">
-        <v>95</v>
+      <c r="C24" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1139,122 +1183,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C29"/>
+  <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="45.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>98</v>
+      <c r="B2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>100</v>
+      <c r="B4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>102</v>
+      <c r="B8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>104</v>
+      <c r="B11" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>105</v>
+      <c r="B12" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>106</v>
+      <c r="B14" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>108</v>
+      <c r="B16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>110</v>
+      <c r="B19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>112</v>
+      <c r="B22" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="16" t="s">
-        <v>113</v>
+      <c r="C24" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>115</v>
+      <c r="B25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="16" t="s">
-        <v>116</v>
+      <c r="C26" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="16" t="s">
-        <v>117</v>
+      <c r="C27" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="16" t="s">
-        <v>118</v>
+      <c r="C28" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="16" t="s">
-        <v>119</v>
+      <c r="C29" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
